--- a/outline/outline.xlsx
+++ b/outline/outline.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danpfeiffer/Documents/code/ai-book-project/outline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83D6BE9-9584-E142-81C8-BAAC66B39DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E38B61-86BD-2545-9BB0-621E6E3818C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="32900" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="32760" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="outline_v2" sheetId="1" r:id="rId1"/>
     <sheet name="outline" sheetId="2" r:id="rId2"/>
     <sheet name="food table" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="445">
   <si>
     <t>Beat</t>
   </si>
@@ -186,9 +187,6 @@
     <t>What does Sam learn about his reality?</t>
   </si>
   <si>
-    <t>Glenn's 'I'm not a god' monologue. Shows Sam brother simulations — parallel trials with similar genetics. The weird shit Glenn's tried (made a guy immortal, still screaming). Glenn gives one breakpoint as cruel gift.</t>
-  </si>
-  <si>
     <t>Bad Guys Close In</t>
   </si>
   <si>
@@ -205,9 +203,6 @@
   </si>
   <si>
     <t>How does Tina find out? What's the fallout?</t>
-  </si>
-  <si>
-    <t>All Is Lost</t>
   </si>
   <si>
     <t>Defeat is absolute. Everything won is meaningless.</t>
@@ -1307,9 +1302,6 @@
     <t>End of an Epoch / Compression</t>
   </si>
   <si>
-    <t xml:space="preserve">Processing horror. Tries to quit/delete — Glenn laughs, it won't matter. Colonization continues but Sam is hollow. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Home. </t>
   </si>
   <si>
@@ -1541,15 +1533,9 @@
     <t>The usage is getting high enough that he's having an issue with the bills. But Glenn reveals the progress. Wrap up the epoch and rewards, update the policy. Compress and store what is needed to get the next epoch ready for the date</t>
   </si>
   <si>
-    <t>He has it. This is his career achievement. His name will live on. Except, it won't. It actually is even worse than that, nobody will ever even know your name. You're simulation #CA14-0f48- etc.</t>
-  </si>
-  <si>
     <t>The purpose of his existence is to refine the policy prior to Quant's project takeover. He's shaping the governing AGI to maximize human's survival chances. But not him, he's just a machine</t>
   </si>
   <si>
-    <t>Do you have any idea what it costs to keep this simulation running? There are 10k trials in this epoch. We're saving the most promising 10%. The rest get noted for reproduceability, summarized, and compressed in rare occasions</t>
-  </si>
-  <si>
     <t>He can't save his family. His wife is gone. Tina won't let him even see her.</t>
   </si>
   <si>
@@ -1559,9 +1545,6 @@
     <t>He finally realizes that he wants to spend his time with his family, even if it's going to end next week. Money doesn't matter. Legacy doesn't matter.</t>
   </si>
   <si>
-    <t>Glenn appears in person. 'We should talk.' Sam thinks he's done it. He's saved the simulation, but Glenn can't expose the mountain or he'll destroy it all. Glenn is like dude stop. Reveals simulation truth. Sam found his genetic answer — and got way more than he wanted. Everything he's working toward is meaningless. His legacy project is just training data.</t>
-  </si>
-  <si>
     <t>He gives them everything. He's purchasing a data center and putting it within reach of the mountain. He'll be able to launder any amount of power for them through it.</t>
   </si>
   <si>
@@ -1623,6 +1606,24 @@
   </si>
   <si>
     <t>words</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It actually is even worse than that, nobody will ever even know your name. You're simulation #CA14-0f48- etc.. Do you have any idea what it costs to keep this simulation running? There are 10k trials in this epoch. We're saving the most promising 10%. The rest get noted for reproduceability, summarized, and compressed in rare occasions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He has it. This is his career achievement. His name will live on. Except, it won't. This isn't a colonization project. It's an abandonment project. </t>
+  </si>
+  <si>
+    <t>Reveals simulation truth. Glenn's 'I'm not a god' monologue. Shows Sam brother simulations — parallel trials with similar genetics. The weird shit Glenn's tried (made a guy immortal, still screaming). Glenn gives one breakpoint as cruel gift.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His legacy project is just training data.. Processing horror. Tries to quit/delete — Glenn laughs, it won't matter. Colonization continues but Sam is hollow. </t>
+  </si>
+  <si>
+    <t>All is Lost</t>
+  </si>
+  <si>
+    <t>Glenn appears in person. 'We should talk.' Sam thinks he's done it. He's saved the simulation, but Glenn can't expose the mountain or he'll destroy it all. Glenn is like dude stop. Sam found his genetic answer — and got way more than he wanted. Everything he's working toward is meaningless.Reveals simulation truth.  His legacy project is just training data.</t>
   </si>
 </sst>
 </file>
@@ -1993,8 +1994,8 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2024,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -2033,10 +2034,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -2045,16 +2046,16 @@
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>5</v>
@@ -2065,7 +2066,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -2087,16 +2088,16 @@
         <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -2104,7 +2105,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -2120,19 +2121,19 @@
         <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="96" x14ac:dyDescent="0.2">
@@ -2140,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -2156,19 +2157,19 @@
         <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="176" x14ac:dyDescent="0.2">
@@ -2176,7 +2177,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -2190,22 +2191,22 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="64" x14ac:dyDescent="0.2">
@@ -2213,7 +2214,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
@@ -2232,16 +2233,16 @@
         <v>21</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -2249,7 +2250,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
@@ -2268,16 +2269,16 @@
         <v>24</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -2285,7 +2286,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -2304,16 +2305,16 @@
         <v>27</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -2321,7 +2322,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>29</v>
@@ -2340,16 +2341,16 @@
         <v>32</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="80" x14ac:dyDescent="0.2">
@@ -2357,7 +2358,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>29</v>
@@ -2377,16 +2378,16 @@
         <v>35</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -2394,7 +2395,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>29</v>
@@ -2408,7 +2409,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="K12" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -2416,7 +2417,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>29</v>
@@ -2435,19 +2436,19 @@
         <v>36</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -2455,7 +2456,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
@@ -2474,16 +2475,16 @@
         <v>38</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="64" x14ac:dyDescent="0.2">
@@ -2491,7 +2492,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>29</v>
@@ -2513,16 +2514,16 @@
         <v>40</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -2530,7 +2531,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>29</v>
@@ -2543,19 +2544,19 @@
         <v>E</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>410</v>
-      </c>
       <c r="K16" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="128" x14ac:dyDescent="0.2">
@@ -2563,7 +2564,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>29</v>
@@ -2577,19 +2578,19 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="80" x14ac:dyDescent="0.2">
@@ -2597,7 +2598,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>29</v>
@@ -2616,13 +2617,13 @@
         <v>42</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="96" x14ac:dyDescent="0.2">
@@ -2630,7 +2631,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>29</v>
@@ -2644,19 +2645,19 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>400</v>
-      </c>
       <c r="K19" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -2664,7 +2665,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>29</v>
@@ -2678,33 +2679,33 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2712,19 +2713,19 @@
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="80" x14ac:dyDescent="0.2">
@@ -2732,7 +2733,7 @@
         <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>29</v>
@@ -2751,255 +2752,258 @@
         <v>46</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>335</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K23" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="96" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="B24" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>341</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1A</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1B</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="B30" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3007,93 +3011,93 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1D</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1E</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -3106,19 +3110,19 @@
         <v>1F</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3148,58 +3152,58 @@
   <sheetData>
     <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
@@ -3207,57 +3211,57 @@
     </row>
     <row r="2" spans="1:19" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" t="s">
         <v>103</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>104</v>
       </c>
-      <c r="K2" t="s">
+      <c r="S2" t="s">
         <v>105</v>
-      </c>
-      <c r="L2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
         <v>108</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>110</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="K3" t="s">
         <v>113</v>
-      </c>
-      <c r="J3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="288" x14ac:dyDescent="0.2">
@@ -3268,229 +3272,229 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
         <v>116</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="J4" t="s">
         <v>119</v>
       </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
         <v>120</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>121</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>122</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>123</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>124</v>
-      </c>
-      <c r="R4" t="s">
-        <v>125</v>
-      </c>
-      <c r="S4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="365" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" t="s">
         <v>129</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>130</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>131</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>132</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>133</v>
       </c>
-      <c r="K5" t="s">
+      <c r="Q5" t="s">
         <v>134</v>
       </c>
-      <c r="L5" t="s">
+      <c r="S5" t="s">
         <v>135</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>136</v>
-      </c>
-      <c r="S5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="256" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" t="s">
         <v>138</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
         <v>139</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>140</v>
       </c>
-      <c r="L6" t="s">
+      <c r="P6" t="s">
         <v>141</v>
-      </c>
-      <c r="O6" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" t="s">
         <v>145</v>
       </c>
-      <c r="G7" t="s">
+      <c r="L7" t="s">
         <v>146</v>
-      </c>
-      <c r="J7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="160" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" t="s">
         <v>150</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>151</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>152</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>153</v>
       </c>
-      <c r="K8" t="s">
+      <c r="S8" t="s">
         <v>154</v>
-      </c>
-      <c r="L8" t="s">
-        <v>155</v>
-      </c>
-      <c r="S8" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>157</v>
+      </c>
+      <c r="L9" t="s">
         <v>158</v>
-      </c>
-      <c r="G9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="256" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" t="s">
         <v>162</v>
       </c>
-      <c r="G10" t="s">
+      <c r="K10" t="s">
         <v>163</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>164</v>
       </c>
-      <c r="K10" t="s">
+      <c r="Q10" t="s">
         <v>165</v>
-      </c>
-      <c r="L10" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="192" x14ac:dyDescent="0.2">
@@ -3498,74 +3502,74 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" t="s">
+        <v>167</v>
+      </c>
+      <c r="O11" t="s">
         <v>168</v>
-      </c>
-      <c r="G11" t="s">
-        <v>169</v>
-      </c>
-      <c r="O11" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="176" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" t="s">
         <v>172</v>
       </c>
-      <c r="H12" t="s">
+      <c r="M12" t="s">
         <v>173</v>
       </c>
-      <c r="K12" t="s">
+      <c r="S12" t="s">
         <v>174</v>
-      </c>
-      <c r="M12" t="s">
-        <v>175</v>
-      </c>
-      <c r="S12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" t="s">
         <v>178</v>
       </c>
-      <c r="G13" t="s">
+      <c r="K13" t="s">
         <v>179</v>
-      </c>
-      <c r="H13" t="s">
-        <v>180</v>
-      </c>
-      <c r="K13" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="192" x14ac:dyDescent="0.2">
@@ -3573,242 +3577,242 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" t="s">
         <v>182</v>
-      </c>
-      <c r="G14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" t="s">
         <v>185</v>
       </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="I15" t="s">
         <v>186</v>
-      </c>
-      <c r="G15" t="s">
-        <v>187</v>
-      </c>
-      <c r="I15" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="256" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" t="s">
         <v>191</v>
       </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="H17" t="s">
         <v>192</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>193</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" t="s">
         <v>194</v>
       </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>195</v>
-      </c>
-      <c r="K17" t="s">
-        <v>196</v>
-      </c>
-      <c r="L17" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="320" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B18" t="s">
+      <c r="G18" t="s">
         <v>199</v>
       </c>
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="H18" t="s">
         <v>200</v>
-      </c>
-      <c r="G18" t="s">
-        <v>201</v>
-      </c>
-      <c r="H18" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
         <v>205</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G20" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" t="s">
         <v>210</v>
-      </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G22" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
         <v>213</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G23" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3840,848 +3844,848 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" t="s">
         <v>230</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>231</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>232</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" t="s">
         <v>233</v>
       </c>
-      <c r="E2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" t="s">
-        <v>235</v>
-      </c>
       <c r="I2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" t="s">
         <v>236</v>
       </c>
-      <c r="C3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D3" t="s">
-        <v>238</v>
-      </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" t="s">
         <v>239</v>
-      </c>
-      <c r="D4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J4" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" t="s">
         <v>242</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" t="s">
         <v>243</v>
-      </c>
-      <c r="D5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" t="s">
         <v>248</v>
       </c>
-      <c r="C7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" t="s">
-        <v>250</v>
-      </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I9" t="s">
+        <v>233</v>
+      </c>
+      <c r="J9" t="s">
         <v>253</v>
-      </c>
-      <c r="D9" t="s">
-        <v>254</v>
-      </c>
-      <c r="E9" t="s">
-        <v>234</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I9" t="s">
-        <v>235</v>
-      </c>
-      <c r="J9" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" t="s">
         <v>256</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>257</v>
       </c>
-      <c r="C10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D10" t="s">
-        <v>259</v>
-      </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" t="s">
         <v>262</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>263</v>
       </c>
-      <c r="C12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D12" t="s">
-        <v>265</v>
-      </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
         <v>266</v>
-      </c>
-      <c r="D13" t="s">
-        <v>267</v>
-      </c>
-      <c r="E13" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" t="s">
         <v>269</v>
       </c>
-      <c r="D14" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14" t="s">
-        <v>271</v>
-      </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" t="s">
         <v>276</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>277</v>
       </c>
-      <c r="D17" t="s">
-        <v>278</v>
-      </c>
-      <c r="E17" t="s">
-        <v>279</v>
-      </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" t="s">
         <v>284</v>
       </c>
-      <c r="D20" t="s">
-        <v>285</v>
-      </c>
-      <c r="E20" t="s">
-        <v>286</v>
-      </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
       </c>
       <c r="J21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" t="s">
         <v>289</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>290</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
         <v>291</v>
       </c>
-      <c r="E22" t="s">
-        <v>292</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" t="s">
-        <v>293</v>
-      </c>
       <c r="J22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D25" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/outline/outline.xlsx
+++ b/outline/outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danpfeiffer/Documents/code/ai-book-project/outline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E38B61-86BD-2545-9BB0-621E6E3818C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AD12B9-D69C-0C4F-ACA1-0A271C7ADF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="32760" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="423">
   <si>
     <t>Beat</t>
   </si>
@@ -76,40 +76,13 @@
     <t>YOU (comfort)</t>
   </si>
   <si>
-    <t>Visual/emotional snapshot BEFORE change</t>
-  </si>
-  <si>
     <t>Set Up</t>
   </si>
   <si>
-    <t>Status quo. Plant the want. Hint at transformation</t>
-  </si>
-  <si>
     <t>NEED (desire)</t>
   </si>
   <si>
-    <t>What truth will Sam learn? Someone says it — he doesn't get it yet.</t>
-  </si>
-  <si>
-    <t>Catalyst</t>
-  </si>
-  <si>
     <t>GO (unfamiliar)</t>
-  </si>
-  <si>
-    <t>Jolt to the status quo</t>
-  </si>
-  <si>
-    <t>What disrupts everything? What opportunity appears?</t>
-  </si>
-  <si>
-    <t>Debate</t>
-  </si>
-  <si>
-    <t>Internal conflict. Why resist?</t>
-  </si>
-  <si>
-    <t>Why would he say no? What's the cost? What's he torn between?</t>
   </si>
   <si>
     <t>Break into Two</t>
@@ -1209,60 +1182,18 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>What's Sam's world? Who are his people, who matters?</t>
-  </si>
-  <si>
-    <t>Goes into the clouds for work. Show him in his comfort zone. Show the technological progress. AI Agents. His problem set. His competence. His boredom and restlessness. This is a training session. Not a temp but a guy he's been training for weeks to take over</t>
-  </si>
-  <si>
     <t>Quant Campus</t>
   </si>
   <si>
-    <t>Sam's House</t>
-  </si>
-  <si>
-    <t>Clouds (work from home technically)</t>
-  </si>
-  <si>
-    <t>Status quo. Plant the want. Hint at transformation. What is this story about?</t>
-  </si>
-  <si>
-    <t>Dinner time -&gt; Bedtime -&gt; Pillow talk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home alone in the clouds. Wife is out of the house. </t>
-  </si>
-  <si>
-    <t>Bored as fuck. Planning a trip with his AI. Checks inbox and takes the call. It's the physical manifestation of Glenn. Colonization project. Genetic seed ship. His name on every planet. The ultimate legacy. Gets a briefing without a ton of other info</t>
-  </si>
-  <si>
     <t>World</t>
   </si>
   <si>
-    <t xml:space="preserve">Aquarium with eldest son. One of their fish just died. Good dad moment. But he's half-present — mind already elsewhere. Thinking about what's next. Son into mars / robotics. Eldest seeking attention but he's not really engaged. Family morning. </t>
-  </si>
-  <si>
-    <t>What does he do for fun? What types of jobs are out there?</t>
-  </si>
-  <si>
-    <t>Small quarters. Ultra high tech kids using AI. Mars colonized or starting to be. Food rationing. Universal basic income</t>
-  </si>
-  <si>
-    <t>Set up Cloud. The food chain is doomed. Optimization wizard. AI are real parts of this</t>
-  </si>
-  <si>
     <t>Clouds. Quant Spaceship Demo Lab</t>
   </si>
   <si>
     <t>School. Sam is late</t>
   </si>
   <si>
-    <t>3rd kid limits. Extent of his donation to Tina is realized. Legacy humans / deprecation.</t>
-  </si>
-  <si>
-    <t>Ramona is pregnant with 3rd (taboo). She wants him present for this phase. Sam's choice: legacy vs. presence. NOT money — they're set. The job is pure ego.</t>
-  </si>
-  <si>
     <t>It's worse than we thought. Humanity is doomed</t>
   </si>
   <si>
@@ -1314,9 +1245,6 @@
     <t>Solving colonization. AI swarms. Technical competence porn. Mystery clues emerge: memory allocation impossibly large, ancient OS timestamps, population bottleneck anomaly. Glenn async rapport — weirdly helpful replies, knows too much. Sam finds maintenance logs: Frank Thomas → Randy Johnson → Glenn Robinson. Same entity. Needs DNA</t>
   </si>
   <si>
-    <t>Wife solves his problem by suggesting Tina.</t>
-  </si>
-  <si>
     <t>Space Onboarding</t>
   </si>
   <si>
@@ -1377,9 +1305,6 @@
     <t>Press the button, walk home</t>
   </si>
   <si>
-    <t>Bio-scan / ID stuff (Tina needs someone to buy her shit). Deprecated humans (luddites, amish). Sam has been floating Tina and family. Need to show the legacy vs. posthuman dynamic somehow</t>
-  </si>
-  <si>
     <t>Birthday Dinner</t>
   </si>
   <si>
@@ -1395,51 +1320,12 @@
     <t>Project ___</t>
   </si>
   <si>
-    <t>Fishbowl</t>
-  </si>
-  <si>
-    <t>WFH</t>
-  </si>
-  <si>
-    <t>Retirement</t>
-  </si>
-  <si>
-    <t>Job Offer</t>
-  </si>
-  <si>
-    <t>Be Positive</t>
-  </si>
-  <si>
-    <t>The Wife Is Always Right</t>
-  </si>
-  <si>
     <t>Answer Key</t>
   </si>
   <si>
     <t>Corporations have taken over the world. They're putting AI in charge</t>
   </si>
   <si>
-    <t>Sam is wealthy. He has 2 kids and a wife. He's depressed and going through a midlife crisis already</t>
-  </si>
-  <si>
-    <t>Who is Sam, and what makes him different?</t>
-  </si>
-  <si>
-    <t>Family bedtime. Sam goes up to put the kids to bed. Wife stays and finishes her glass of wine and a joint. A small gathering has just taken place. He's walking some folks out to their rides. He's accomplished — retiring at 31 like a pro athlete. "Is that all my life is? Work 14 contracts then it's the next generation's turn?" Restless. He THINKS he wants to do something important. What he actually wants (won't admit): LEGACY. His name to outlast him. He's already doing important work but can't see it. Ramona knows they only get one shot. She also knows family and the next generation is what matters. We're snapshots in time on a scale that's unimaginably large. Enjoy your life and your family. Be present.  Sam brushes it off.  Ramona gives Sam the memory map. Thought maybe they could start visiting the places they've always talked about going now</t>
-  </si>
-  <si>
-    <t>End of a retirement party at home</t>
-  </si>
-  <si>
-    <t>Family is your legacy. Put them first</t>
-  </si>
-  <si>
-    <t>A real chance at legacy. One more job</t>
-  </si>
-  <si>
-    <t>He just retired. His kids are so excited for him to be home. He loves being a dad but wants his legacy</t>
-  </si>
-  <si>
     <t>He takes the job. He believes he has a higher calling</t>
   </si>
   <si>
@@ -1482,9 +1368,6 @@
     <t>Lab (clouds, physical manifestation of the humans)</t>
   </si>
   <si>
-    <t>Dinner. Wife's birthday</t>
-  </si>
-  <si>
     <t>Gets the DNA for giving them runway. Adjusts his models and makes enough progress to solve it essentially. Has the DNA now. Figuring out the smoking gun of the DNA as the problem / garbage data. He literally has every sample visually shown like create-a-player. They start with base reproduction rates (that's all he's solving for in the reward system really). How to get avg reproduction &gt;1 and as high as possible. They're cycling through visually (one at each level, cell, tissue, organ, etc.)</t>
   </si>
   <si>
@@ -1515,9 +1398,6 @@
     <t>Coffee shop. He's talking to Glenn</t>
   </si>
   <si>
-    <t>He's hitting a wall with the DNA, out of sample problem on evolution. Glenn is somewhat pressuring him. He makes it known that he knows about his wife. She's going to the mountain 4 times a week. Who does that? Very curious. And that museum is using… No, that can't be right. 3421 kWh/sqft. I don't know much about ski lifts but that doesn't seem right.... And it's got a negative load curve. Hm. But, there's only 100kWh of solar onsite. Very curious how the peak load could be that low. Very curious. Anyway, I think it's best that the project doesn't have any hangups on launch day</t>
-  </si>
-  <si>
     <t>Coffee shop.</t>
   </si>
   <si>
@@ -1590,30 +1470,12 @@
     <t>This unknown man is pulling the strings on this project. What the fuck you mean he took a day off?</t>
   </si>
   <si>
-    <t xml:space="preserve">He can't do his job. He needs to be at the mountain. Glenn knows about Ramona and Tina. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">He learns that models / computers are still imperfect. He can't blindly trust the technology. He </t>
-  </si>
-  <si>
-    <t>He gives her the memory map, but she wanted a love letter (she's nice about it). He uses the map to tell her mood as the last straw. She makes some offhand comment about AI not being real that pushes him over the ledge on mass human gene modification. Tina found out about the colony. Ramona knows it's an abandon mission. He doesn't give a shit about the legacy folk. He doesn't give a shit about his own family, or himself.</t>
-  </si>
-  <si>
-    <t>He's really good at simulation and optimization. Food and Energy balance. Think Virtual power plants meets Distributed Energy Resource Management System meets Food chain logistics. He is using monte carlo / enormous simulation software to model this</t>
-  </si>
-  <si>
     <t>Coffee Guy notes the time. Getting briefed on his way to work, pedaling in his car. Glenn (not named yet) is feeding him summary of findings. Answering his prep questions. Change support slides 12.3 and 12.4 blah blah blah. Agent doing the work kind of thing.  Grant Melrose and Quant exposition. World is in trouble. Protocol initiated.</t>
   </si>
   <si>
     <t>words</t>
   </si>
   <si>
-    <t xml:space="preserve"> It actually is even worse than that, nobody will ever even know your name. You're simulation #CA14-0f48- etc.. Do you have any idea what it costs to keep this simulation running? There are 10k trials in this epoch. We're saving the most promising 10%. The rest get noted for reproduceability, summarized, and compressed in rare occasions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He has it. This is his career achievement. His name will live on. Except, it won't. This isn't a colonization project. It's an abandonment project. </t>
-  </si>
-  <si>
     <t>Reveals simulation truth. Glenn's 'I'm not a god' monologue. Shows Sam brother simulations — parallel trials with similar genetics. The weird shit Glenn's tried (made a guy immortal, still screaming). Glenn gives one breakpoint as cruel gift.</t>
   </si>
   <si>
@@ -1623,7 +1485,94 @@
     <t>All is Lost</t>
   </si>
   <si>
-    <t>Glenn appears in person. 'We should talk.' Sam thinks he's done it. He's saved the simulation, but Glenn can't expose the mountain or he'll destroy it all. Glenn is like dude stop. Sam found his genetic answer — and got way more than he wanted. Everything he's working toward is meaningless.Reveals simulation truth.  His legacy project is just training data.</t>
+    <t xml:space="preserve">  Do you have any idea what it costs to keep this simulation running? There are 10k trials in this epoch. We're saving the most promising 10%. The rest get noted for reproduceability, summarized, and compressed in rare occasions</t>
+  </si>
+  <si>
+    <t>He has it. This is his career achievement. His name will live on. However, this isn't just an abandonment project, It actually is even worse than that, nobody will ever even know your name. You're simulation #CA14-0f48- etc..</t>
+  </si>
+  <si>
+    <t>He learns that models / computers are still imperfect. He can't blindly trust the technology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He can't do his job. He needs to be at the mountain. Glenn knows about Ramona and Tina. This isn't a colonization project. It's an abandonment project. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He's hitting a wall with the DNA, out of sample problem on evolution. Glenn is somewhat pressuring him. He makes it known that he knows about his wife. She's going to the mountain 4 times a week. Who does that? Very curious. And that museum is using… No, that can't be right. 3421 kWh/sqft. I don't know much about ski lifts but that doesn't seem right.... And it's got a negative load curve. Hm. But, there's only 100kWh of solar onsite. Very curious how the peak load could be that low. Very curious. Anyway, I think it's best that the project doesn't have any hangups on launch day. This isn't a colonization project. It's an abandonment project. </t>
+  </si>
+  <si>
+    <t>Work From Home</t>
+  </si>
+  <si>
+    <t>Clouds / Sam's Home</t>
+  </si>
+  <si>
+    <t>Unretirement</t>
+  </si>
+  <si>
+    <t>Deprecated humans (luddites, amish). Sam has been floating Tina and family. Need to show the legacy vs. posthuman dynamic somehow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Jolt to the status quo</t>
+  </si>
+  <si>
+    <t>Visual/emotional snapshot BEFORE change
+Status quo. Plant the want. Hint at transformation. What is this story about?</t>
+  </si>
+  <si>
+    <t>What's Sam's world? Who are his people, who matters? What makes him different?
+What truth will Sam learn? Someone says it — he doesn't get it yet.</t>
+  </si>
+  <si>
+    <t>He's really good at simulation and optimization. Food and Energy balance. Think Virtual power plants meets Distributed Energy Resource Management System meets Food chain logistics. He is using monte carlo / enormous simulation software to model this. He has 2 kids and a wife. Wife is stay at home and stressed. She knows family over legacy, he doesn't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+What disrupts everything? What opportunity appears?
+Why would he say no? What's the cost? What's he torn between?</t>
+  </si>
+  <si>
+    <t>Family is your legacy. Put them first
+A real chance at legacy. One more job.
+He just retired. His kids are so excited for him to be home. He loves being a dad but wants his legacy</t>
+  </si>
+  <si>
+    <t>Ramona at museum, Sam "planning a trip" but actually hunting contracts. Glenn appears with colonization  
+    offer. Sam gets excited, rationalizes. Ramona comes home, supportive but sees through him. Gets to her real opinion        
+    eventually. He chooses ego.  
+Bored as fuck. Planning a trip with his AI. Checks inbox and takes the call. It's the physical manifestation of Glenn. Colonization project. Genetic seed ship. His name on every planet. The ultimate legacy. Gets a briefing without a ton of other info
+Ramona is pregnant with 3rd (taboo). She wants him present for this phase. Sam's choice: legacy vs. presence. NOT money — they're set. The job is pure ego.</t>
+  </si>
+  <si>
+    <t>Set up Cloud. The food chain is doomed. Optimization wizard. AI are real parts of this
+Small quarters. Ultra high tech kids using AI. Mars colonized or starting to be. Food rationing. Universal basic income. 3rd kid limits</t>
+  </si>
+  <si>
+    <t>Goes into the clouds for work. Show him in his comfort zone. Show the technological progress. AI Agents. His problem set. His competence. His boredom and restlessness. This is a training session. Not a temp but a guy he's been training for weeks to take over. 
+He hears banging throughout the simulation. It's his wife at his office door. Oh shit he's late, drops out to go home. He missed dinner, kids are running around, wife is overwhelmed. It's already bedtime.
+Aquarium with eldest son. One of their fish just died. Good dad moment. But he's half-present — mind already elsewhere. Thinking about what's next. Son into mars / robotics. Eldest seeking attention but he's not really engaged.
+Ramona is pregnant with 3rd (taboo). She wants him present for this phase. Sam's choice: legacy vs. presence. NOT money — they're set. The job is pure ego.</t>
+  </si>
+  <si>
+    <t>How is his choice changing the dynamic?</t>
+  </si>
+  <si>
+    <t>He's starting to be even less present. His wife got him a thoughtful gift and he's still elsewhere</t>
+  </si>
+  <si>
+    <t>They made him something special. Japanese spider crab. A memory map. Places they will go. Wife says something about Tina that starts to distract him. He loses the conversation. She makes a pass at him and he denies, logs back on</t>
+  </si>
+  <si>
+    <t>Out to dinner</t>
+  </si>
+  <si>
+    <t>TBD, need kids there</t>
+  </si>
+  <si>
+    <t>Tina shows up at the house, livid. Ramona slipped about the true purpose of the mission. The kids are there too. Find something dope for them to be doing before Tina escalates. He says some shit he can't take back that severs everything. He logs back on, determined now to go the extra mile. Basically murder all the simulations by the thousands with broken DNA combinations to find unusual alleles</t>
+  </si>
+  <si>
+    <t>Glenn appears in person. 'We should talk.' Sam thinks he's done it. He's saved the simulation, but Glenn can't expose the mountain or he'll destroy it all. Glenn is like relax, it was a bluff. Sam found his genetic answer — and got way more than he wanted. Everything he's working toward is meaningless.Reveals simulation truth.  His legacy project is just training data.</t>
   </si>
 </sst>
 </file>
@@ -1991,11 +1940,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2016,7 +1965,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F1" s="3">
-        <f>SUM(F3:F181)</f>
+        <f>SUM(F3:F178)</f>
         <v>8791</v>
       </c>
     </row>
@@ -2025,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -2034,10 +1983,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -2046,16 +1995,16 @@
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>5</v>
@@ -2066,7 +2015,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -2088,24 +2037,24 @@
         <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -2114,463 +2063,465 @@
         <v>12</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f t="shared" ref="E4:E33" si="0">DEC2HEX((ROW()-2))</f>
+        <f t="shared" ref="E4:E30" si="0">DEC2HEX((ROW()-2))</f>
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="192" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="B5" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
+        <v>405</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>310</v>
+        <v>107</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="176" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F6" s="4"/>
       <c r="G6" s="3" t="s">
-        <v>311</v>
+        <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="H9" s="3" t="s">
-        <v>27</v>
+        <v>416</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>325</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="F10" s="3">
+        <v>1680</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>32</v>
+        <v>347</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>365</v>
+        <v>28</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="3">
+        <v>1325</v>
+      </c>
       <c r="G11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>348</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="3">
+        <v>2073</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="K12" s="3" t="s">
-        <v>341</v>
+        <v>351</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="F13" s="3">
-        <v>1680</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>36</v>
+        <v>365</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>303</v>
+        <v>368</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="144" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="F14" s="3">
-        <v>1325</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="3" t="s">
-        <v>38</v>
+        <v>353</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="F15" s="3">
-        <v>2073</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>401</v>
+        <v>338</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="3" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2578,551 +2529,450 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>433</v>
+        <v>372</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="3" t="s">
-        <v>41</v>
+        <v>357</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>42</v>
+        <v>370</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F19" s="4"/>
       <c r="G19" s="3" t="s">
-        <v>392</v>
+        <v>36</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>393</v>
+        <v>37</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>397</v>
+        <v>311</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>401</v>
+        <v>312</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F20" s="4"/>
       <c r="G20" s="3" t="s">
-        <v>402</v>
+        <v>47</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>403</v>
+        <v>46</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>409</v>
+        <v>314</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F21" s="4"/>
       <c r="G21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="I22" s="3" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>443</v>
+        <v>59</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="96" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="B27" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>383</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="3" t="s">
-        <v>63</v>
+        <v>382</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>64</v>
+        <v>381</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1A</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1B</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C30" s="3">
-        <v>3</v>
+        <v>334</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1C</v>
       </c>
-      <c r="F30" s="4"/>
       <c r="G30" s="3" t="s">
-        <v>422</v>
+        <v>68</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>421</v>
+        <v>69</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>425</v>
+        <v>335</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1D</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1E</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1F</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3152,58 +3002,58 @@
   <sheetData>
     <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
@@ -3211,57 +3061,57 @@
     </row>
     <row r="2" spans="1:19" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="S2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="288" x14ac:dyDescent="0.2">
@@ -3272,547 +3122,547 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O4" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" t="s">
         <v>114</v>
       </c>
-      <c r="D4" t="s">
+      <c r="S4" t="s">
         <v>115</v>
-      </c>
-      <c r="E4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O4" t="s">
-        <v>121</v>
-      </c>
-      <c r="P4" t="s">
-        <v>122</v>
-      </c>
-      <c r="R4" t="s">
-        <v>123</v>
-      </c>
-      <c r="S4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="365" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" t="s">
         <v>126</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" t="s">
-        <v>131</v>
-      </c>
-      <c r="K5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="256" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="O6" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="J7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="L7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="160" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="L8" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="S8" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L9" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="256" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G10" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="K10" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="L10" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="Q10" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="192" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G11" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="O11" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="176" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M12" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="S12" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G13" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="K13" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="192" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H14" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I15" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="256" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H17" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I17" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="320" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H18" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3844,848 +3694,848 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="J3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" t="s">
         <v>228</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>229</v>
       </c>
-      <c r="C4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" t="s">
-        <v>238</v>
-      </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="J4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="J6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" t="s">
         <v>240</v>
       </c>
-      <c r="C8" t="s">
-        <v>249</v>
-      </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="J8" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H9" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I9" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="J9" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H10" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H12" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D13" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E13" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D14" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E14" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H14" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J15" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C16" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D16" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J16" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D17" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E17" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J17" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C18" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D18" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E18" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I18" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J18" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C19" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E19" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G19" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H19" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" t="s">
         <v>274</v>
       </c>
-      <c r="C20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D20" t="s">
-        <v>283</v>
-      </c>
       <c r="E20" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H20" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C21" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D21" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E21" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
       </c>
       <c r="J21" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C22" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D22" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E22" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I22" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="J22" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D23" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I23" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="J23" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C24" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D24" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E24" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F24" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H24" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I24" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="J24" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C25" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D25" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E25" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C26" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D26" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E26" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C27" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G27" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/outline/outline.xlsx
+++ b/outline/outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danpfeiffer/Documents/code/ai-book-project/outline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AD12B9-D69C-0C4F-ACA1-0A271C7ADF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B72D529-5FC3-A341-B9E3-0088AD74829A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="32760" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="415">
   <si>
     <t>Beat</t>
   </si>
@@ -151,9 +151,6 @@
     <t>What does Sam GET that changes everything?</t>
   </si>
   <si>
-    <t>2A/2B</t>
-  </si>
-  <si>
     <t>Glenn explains everything</t>
   </si>
   <si>
@@ -173,12 +170,6 @@
   </si>
   <si>
     <t>How does it get worse? What's closing in?</t>
-  </si>
-  <si>
-    <t>How does Tina find out? What's the fallout?</t>
-  </si>
-  <si>
-    <t>Defeat is absolute. Everything won is meaningless.</t>
   </si>
   <si>
     <t>Dark Night of Soul</t>
@@ -1227,18 +1218,9 @@
     <t>Clouds. Glenn</t>
   </si>
   <si>
-    <t>Tina Betrayal</t>
-  </si>
-  <si>
     <t>End of an Epoch / Compression</t>
   </si>
   <si>
-    <t xml:space="preserve">Home. </t>
-  </si>
-  <si>
-    <t>Sam needs to tell her something. She's taking the kids. Ramona visited colony. Tina finds out Sam's colonization work = abandoning people like her. Betrayal comes out through Ramona — makes it worse. Falling out. Uses Memory Map to read wife's mood — she's hurt he needs gadget.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Legacy humans are everywhere. They will die out without help though. </t>
   </si>
   <si>
@@ -1287,9 +1269,6 @@
     <t>Prisoner's dilemma / twin heist</t>
   </si>
   <si>
-    <t>Press the button</t>
-  </si>
-  <si>
     <t>Aquarium 2</t>
   </si>
   <si>
@@ -1299,12 +1278,6 @@
     <t>Coffee guy callback</t>
   </si>
   <si>
-    <t>Home, aquarium</t>
-  </si>
-  <si>
-    <t>Press the button, walk home</t>
-  </si>
-  <si>
     <t>Birthday Dinner</t>
   </si>
   <si>
@@ -1416,9 +1389,6 @@
     <t>The purpose of his existence is to refine the policy prior to Quant's project takeover. He's shaping the governing AGI to maximize human's survival chances. But not him, he's just a machine</t>
   </si>
   <si>
-    <t>He can't save his family. His wife is gone. Tina won't let him even see her.</t>
-  </si>
-  <si>
     <t>Robots have blind spots too</t>
   </si>
   <si>
@@ -1452,12 +1422,6 @@
     <t>Coffee Guy approves routine-looking task list. Simulation copied to hidden server. He wraps up and tells Maya to summarize the work, generate the white paper, presentation, and suggested script for his review by 430AM</t>
   </si>
   <si>
-    <t>He's not sure if he's even real. He knows he doesn't matter now. It doesn't matter, he just wants to be home</t>
-  </si>
-  <si>
-    <t>He's present with his kids. He's all in.</t>
-  </si>
-  <si>
     <t>The energy ladder all the way from his server out to the exoplanets</t>
   </si>
   <si>
@@ -1479,16 +1443,7 @@
     <t>Reveals simulation truth. Glenn's 'I'm not a god' monologue. Shows Sam brother simulations — parallel trials with similar genetics. The weird shit Glenn's tried (made a guy immortal, still screaming). Glenn gives one breakpoint as cruel gift.</t>
   </si>
   <si>
-    <t xml:space="preserve">His legacy project is just training data.. Processing horror. Tries to quit/delete — Glenn laughs, it won't matter. Colonization continues but Sam is hollow. </t>
-  </si>
-  <si>
     <t>All is Lost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Do you have any idea what it costs to keep this simulation running? There are 10k trials in this epoch. We're saving the most promising 10%. The rest get noted for reproduceability, summarized, and compressed in rare occasions</t>
-  </si>
-  <si>
-    <t>He has it. This is his career achievement. His name will live on. However, this isn't just an abandonment project, It actually is even worse than that, nobody will ever even know your name. You're simulation #CA14-0f48- etc..</t>
   </si>
   <si>
     <t>He learns that models / computers are still imperfect. He can't blindly trust the technology.</t>
@@ -1573,6 +1528,29 @@
   </si>
   <si>
     <t>Glenn appears in person. 'We should talk.' Sam thinks he's done it. He's saved the simulation, but Glenn can't expose the mountain or he'll destroy it all. Glenn is like relax, it was a bluff. Sam found his genetic answer — and got way more than he wanted. Everything he's working toward is meaningless.Reveals simulation truth.  His legacy project is just training data.</t>
+  </si>
+  <si>
+    <t>Tina's visit</t>
+  </si>
+  <si>
+    <t>Coffee Guy Intro</t>
+  </si>
+  <si>
+    <t>He has it. This is his career achievement. His name will live on. However, this isn't just an abandonmentt, It actually is even worse than that, nobody will ever even know your name. You're simulation #CA14-0f48- etc..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Do you have any idea what it costs to keep this simulation running? There are 10k trials in this epoch. We're saving the most promising 10%. The rest get noted for reproduceability, summarized, and compressed in rare occasions
+His legacy project is just training data.. Processing horror. Tries to quit/delete — Glenn laughs, it won't matter. Colonization continues but Sam is hollow. </t>
+  </si>
+  <si>
+    <t>Not only are you a simulation, you're one of thousands. The expense is unbelievable. We're turning you off</t>
+  </si>
+  <si>
+    <t>He's not sure if he's even real. He knows he doesn't matter now. It doesn't matter, he just wants to be home
+He's present with his kids. He's all in.</t>
+  </si>
+  <si>
+    <t>Press button, walk Home, aquarium</t>
   </si>
 </sst>
 </file>
@@ -1940,11 +1918,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1965,7 +1943,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F1" s="3">
-        <f>SUM(F3:F178)</f>
+        <f>SUM(F3:F176)</f>
         <v>8791</v>
       </c>
     </row>
@@ -1974,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1983,10 +1961,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -1995,16 +1973,16 @@
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>5</v>
@@ -2015,7 +1993,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -2037,16 +2015,16 @@
         <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="240" x14ac:dyDescent="0.2">
@@ -2054,7 +2032,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -2063,26 +2041,26 @@
         <v>12</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f t="shared" ref="E4:E30" si="0">DEC2HEX((ROW()-2))</f>
+        <f t="shared" ref="E4:E28" si="0">DEC2HEX((ROW()-2))</f>
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="192" x14ac:dyDescent="0.2">
@@ -2090,7 +2068,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -2104,22 +2082,22 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="3" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -2127,7 +2105,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -2146,16 +2124,16 @@
         <v>18</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -2163,7 +2141,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -2182,16 +2160,16 @@
         <v>23</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="80" x14ac:dyDescent="0.2">
@@ -2199,7 +2177,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -2219,16 +2197,16 @@
         <v>26</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -2236,7 +2214,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
@@ -2250,16 +2228,16 @@
       </c>
       <c r="F9" s="4"/>
       <c r="H9" s="3" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -2267,7 +2245,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>20</v>
@@ -2286,19 +2264,19 @@
         <v>27</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -2306,7 +2284,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>20</v>
@@ -2325,16 +2303,16 @@
         <v>29</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="64" x14ac:dyDescent="0.2">
@@ -2342,7 +2320,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
@@ -2364,16 +2342,16 @@
         <v>31</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -2381,7 +2359,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>20</v>
@@ -2394,19 +2372,19 @@
         <v>B</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="144" x14ac:dyDescent="0.2">
@@ -2414,7 +2392,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>20</v>
@@ -2428,19 +2406,19 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="3" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="80" x14ac:dyDescent="0.2">
@@ -2448,7 +2426,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
@@ -2467,13 +2445,13 @@
         <v>33</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="96" x14ac:dyDescent="0.2">
@@ -2481,7 +2459,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>20</v>
@@ -2495,19 +2473,19 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="3" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -2515,7 +2493,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
@@ -2529,19 +2507,19 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="J17" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="112" x14ac:dyDescent="0.2">
@@ -2549,7 +2527,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>20</v>
@@ -2563,27 +2541,27 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>20</v>
@@ -2602,377 +2580,311 @@
         <v>37</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="96" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="K24" s="3" t="s">
+    </row>
+    <row r="25" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="B26" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>52</v>
+        <v>373</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="3" t="s">
-        <v>60</v>
+        <v>372</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>61</v>
+        <v>371</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3</v>
+        <v>326</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F27" s="4"/>
       <c r="G27" s="3" t="s">
-        <v>382</v>
+        <v>61</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>381</v>
+        <v>62</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1A</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1B</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1C</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3002,58 +2914,58 @@
   <sheetData>
     <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
@@ -3061,57 +2973,57 @@
     </row>
     <row r="2" spans="1:19" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="L2" t="s">
         <v>92</v>
       </c>
-      <c r="J2" t="s">
+      <c r="S2" t="s">
         <v>93</v>
-      </c>
-      <c r="K2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
         <v>97</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>98</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J3" t="s">
         <v>100</v>
       </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
         <v>101</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="288" x14ac:dyDescent="0.2">
@@ -3122,229 +3034,229 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>106</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="L4" t="s">
         <v>108</v>
       </c>
-      <c r="G4" t="s">
+      <c r="O4" t="s">
         <v>109</v>
       </c>
-      <c r="J4" t="s">
+      <c r="P4" t="s">
         <v>110</v>
       </c>
-      <c r="L4" t="s">
+      <c r="R4" t="s">
         <v>111</v>
       </c>
-      <c r="O4" t="s">
+      <c r="S4" t="s">
         <v>112</v>
-      </c>
-      <c r="P4" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4" t="s">
-        <v>114</v>
-      </c>
-      <c r="S4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="365" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="I5" t="s">
         <v>118</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>119</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>120</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>121</v>
       </c>
-      <c r="J5" t="s">
+      <c r="Q5" t="s">
         <v>122</v>
       </c>
-      <c r="K5" t="s">
+      <c r="S5" t="s">
         <v>123</v>
-      </c>
-      <c r="L5" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>125</v>
-      </c>
-      <c r="S5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="256" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" t="s">
         <v>127</v>
       </c>
-      <c r="G6" t="s">
+      <c r="O6" t="s">
         <v>128</v>
       </c>
-      <c r="J6" t="s">
+      <c r="P6" t="s">
         <v>129</v>
-      </c>
-      <c r="L6" t="s">
-        <v>130</v>
-      </c>
-      <c r="O6" t="s">
-        <v>131</v>
-      </c>
-      <c r="P6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" t="s">
         <v>134</v>
-      </c>
-      <c r="G7" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="160" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" t="s">
         <v>139</v>
       </c>
-      <c r="G8" t="s">
+      <c r="K8" t="s">
         <v>140</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L8" t="s">
         <v>141</v>
       </c>
-      <c r="I8" t="s">
+      <c r="S8" t="s">
         <v>142</v>
-      </c>
-      <c r="K8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L8" t="s">
-        <v>144</v>
-      </c>
-      <c r="S8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="256" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" t="s">
         <v>151</v>
       </c>
-      <c r="G10" t="s">
+      <c r="L10" t="s">
         <v>152</v>
       </c>
-      <c r="I10" t="s">
+      <c r="Q10" t="s">
         <v>153</v>
-      </c>
-      <c r="K10" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="192" x14ac:dyDescent="0.2">
@@ -3352,74 +3264,74 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="176" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" t="s">
+        <v>160</v>
+      </c>
+      <c r="M12" t="s">
         <v>161</v>
       </c>
-      <c r="H12" t="s">
+      <c r="S12" t="s">
         <v>162</v>
-      </c>
-      <c r="K12" t="s">
-        <v>163</v>
-      </c>
-      <c r="M12" t="s">
-        <v>164</v>
-      </c>
-      <c r="S12" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" t="s">
         <v>167</v>
-      </c>
-      <c r="G13" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" t="s">
-        <v>169</v>
-      </c>
-      <c r="K13" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="192" x14ac:dyDescent="0.2">
@@ -3427,242 +3339,242 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" t="s">
         <v>174</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I15" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="256" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" t="s">
         <v>180</v>
       </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="I17" t="s">
         <v>181</v>
       </c>
-      <c r="G17" t="s">
+      <c r="K17" t="s">
         <v>182</v>
       </c>
-      <c r="H17" t="s">
+      <c r="L17" t="s">
         <v>183</v>
-      </c>
-      <c r="I17" t="s">
-        <v>184</v>
-      </c>
-      <c r="K17" t="s">
-        <v>185</v>
-      </c>
-      <c r="L17" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="320" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" t="s">
         <v>187</v>
       </c>
-      <c r="B18" t="s">
+      <c r="H18" t="s">
         <v>188</v>
-      </c>
-      <c r="C18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G18" t="s">
-        <v>190</v>
-      </c>
-      <c r="H18" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="G21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3694,848 +3606,848 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
         <v>219</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>220</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" t="s">
         <v>221</v>
       </c>
-      <c r="D2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" t="s">
-        <v>224</v>
-      </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" t="s">
         <v>220</v>
       </c>
-      <c r="C4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" t="s">
-        <v>223</v>
-      </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" t="s">
         <v>231</v>
-      </c>
-      <c r="C5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J5" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" t="s">
         <v>220</v>
       </c>
-      <c r="C6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E6" t="s">
-        <v>223</v>
-      </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" t="s">
         <v>231</v>
-      </c>
-      <c r="C8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" t="s">
-        <v>223</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>224</v>
-      </c>
-      <c r="I8" t="s">
-        <v>138</v>
-      </c>
-      <c r="J8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" t="s">
         <v>245</v>
       </c>
-      <c r="B10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" t="s">
-        <v>248</v>
-      </c>
       <c r="E10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" t="s">
         <v>251</v>
       </c>
-      <c r="B12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" t="s">
-        <v>254</v>
-      </c>
       <c r="E12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17" t="s">
         <v>265</v>
       </c>
-      <c r="C17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17" t="s">
-        <v>267</v>
-      </c>
-      <c r="E17" t="s">
-        <v>268</v>
-      </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" t="s">
         <v>265</v>
       </c>
-      <c r="C18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" t="s">
-        <v>270</v>
-      </c>
-      <c r="E18" t="s">
-        <v>268</v>
-      </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
       </c>
       <c r="J21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" t="s">
         <v>278</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" t="s">
         <v>279</v>
       </c>
-      <c r="D22" t="s">
-        <v>280</v>
-      </c>
-      <c r="E22" t="s">
-        <v>281</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" t="s">
-        <v>282</v>
-      </c>
       <c r="J22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C24" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D24" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I24" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C25" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C26" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D26" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J27" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/outline/outline.xlsx
+++ b/outline/outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danpfeiffer/Documents/code/ai-book-project/outline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B72D529-5FC3-A341-B9E3-0088AD74829A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5805B126-53CD-D248-ABF4-A39E4818064C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="32760" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1920,9 +1920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/outline/outline.xlsx
+++ b/outline/outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danpfeiffer/Documents/code/ai-book-project/outline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5805B126-53CD-D248-ABF4-A39E4818064C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F2283C-7742-8A4E-9660-CA4E6151527C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="32760" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="442">
   <si>
     <t>Beat</t>
   </si>
@@ -1440,9 +1440,6 @@
     <t>words</t>
   </si>
   <si>
-    <t>Reveals simulation truth. Glenn's 'I'm not a god' monologue. Shows Sam brother simulations — parallel trials with similar genetics. The weird shit Glenn's tried (made a guy immortal, still screaming). Glenn gives one breakpoint as cruel gift.</t>
-  </si>
-  <si>
     <t>All is Lost</t>
   </si>
   <si>
@@ -1515,9 +1512,6 @@
     <t>He's starting to be even less present. His wife got him a thoughtful gift and he's still elsewhere</t>
   </si>
   <si>
-    <t>They made him something special. Japanese spider crab. A memory map. Places they will go. Wife says something about Tina that starts to distract him. He loses the conversation. She makes a pass at him and he denies, logs back on</t>
-  </si>
-  <si>
     <t>Out to dinner</t>
   </si>
   <si>
@@ -1551,6 +1545,93 @@
   </si>
   <si>
     <t>Press button, walk Home, aquarium</t>
+  </si>
+  <si>
+    <t>Reveals the purpose and how deep the simulation goes truth. Glenn's 'I'm not a god' monologue. Shows Sam brother simulations — parallel trials with similar genetics. The weird shit Glenn's tried (made a guy immortal, still screaming). Glenn gives one breakpoint as cruel gift.</t>
+  </si>
+  <si>
+    <t>What changed?</t>
+  </si>
+  <si>
+    <t>world setup</t>
+  </si>
+  <si>
+    <t>wife is pregnant, he's retired</t>
+  </si>
+  <si>
+    <t>call to action</t>
+  </si>
+  <si>
+    <t>he's going to be a hero</t>
+  </si>
+  <si>
+    <t>cracks in the façade</t>
+  </si>
+  <si>
+    <t>mystery unfolding. Genetic wall</t>
+  </si>
+  <si>
+    <t>They made him something special. Japanese spider crab. A memory map. Places they will go. Wife says something about Tina that starts to distract him, he agrees to go to the journey. He loses the conversation. She makes a pass at him and he denies, logs back on</t>
+  </si>
+  <si>
+    <t>More cracks, but legacy humans might have the answer</t>
+  </si>
+  <si>
+    <t>Maybe there's hope for the relationship</t>
+  </si>
+  <si>
+    <t>There are way more people down here than I expected</t>
+  </si>
+  <si>
+    <t>Now he has what he needs to solve the problem</t>
+  </si>
+  <si>
+    <t>Ominous surveillance, increase mystery</t>
+  </si>
+  <si>
+    <t>Pressure hitting project. He's not a hero, he's giving up on earth. Stakes raised, could expose mountain</t>
+  </si>
+  <si>
+    <t>He solves the mountain problem to unblock his DNA problem.</t>
+  </si>
+  <si>
+    <t>He's no longer welcome at the mountain. His wife now hates him</t>
+  </si>
+  <si>
+    <t>Connection further clarified, drop very heavy clues</t>
+  </si>
+  <si>
+    <t>Finally he solves the colonization</t>
+  </si>
+  <si>
+    <t>He solved it but it didn't matter</t>
+  </si>
+  <si>
+    <t>He's in a simulation</t>
+  </si>
+  <si>
+    <t>His world is going to turn off</t>
+  </si>
+  <si>
+    <t>His family left him</t>
+  </si>
+  <si>
+    <t>His wife gives him the path forward. They reconcile</t>
+  </si>
+  <si>
+    <t>Tina is in, begrudgingly. It's quid pro quo. She still hates him</t>
+  </si>
+  <si>
+    <t>Glenn is defeated, Maya takes over</t>
+  </si>
+  <si>
+    <t>The memory is copied over, it worked</t>
+  </si>
+  <si>
+    <t>He now has perspective. He's saved his family</t>
+  </si>
+  <si>
+    <t>Show the scale of where he is, where he fits into the universe, his energy transfers light years later to a particle of heat on the future home of humanity</t>
   </si>
 </sst>
 </file>
@@ -1918,11 +1999,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1936,18 +2017,19 @@
     <col min="7" max="7" width="24.83203125" style="3" customWidth="1"/>
     <col min="8" max="10" width="36.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="64.1640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="40.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="40" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="3"/>
+    <col min="12" max="12" width="30" style="3" customWidth="1"/>
+    <col min="13" max="13" width="40.5" style="3" customWidth="1"/>
+    <col min="14" max="14" width="40" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F1" s="3">
         <f>SUM(F3:F176)</f>
         <v>8791</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1982,13 +2064,16 @@
         <v>72</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2024,15 +2109,18 @@
         <v>381</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="240" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -2045,30 +2133,33 @@
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="192" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="192" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -2082,25 +2173,28 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>104</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -2133,10 +2227,13 @@
         <v>290</v>
       </c>
       <c r="L6" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2169,10 +2266,13 @@
         <v>331</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -2206,10 +2306,13 @@
         <v>311</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -2228,19 +2331,22 @@
       </c>
       <c r="F9" s="4"/>
       <c r="H9" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="K9" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2276,10 +2382,13 @@
         <v>28</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -2314,8 +2423,11 @@
       <c r="K11" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="L11" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -2351,10 +2463,13 @@
         <v>342</v>
       </c>
       <c r="L12" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -2386,8 +2501,11 @@
       <c r="K13" s="3" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+      <c r="L13" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -2412,16 +2530,19 @@
         <v>352</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>305</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2445,7 +2566,7 @@
         <v>33</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>292</v>
@@ -2453,13 +2574,16 @@
       <c r="K15" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>20</v>
@@ -2482,18 +2606,21 @@
         <v>347</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
@@ -2521,8 +2648,11 @@
       <c r="K17" s="3" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -2555,8 +2685,11 @@
       <c r="K18" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -2580,16 +2713,19 @@
         <v>37</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>308</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -2619,12 +2755,15 @@
         <v>308</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="96" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>309</v>
@@ -2646,16 +2785,19 @@
         <v>44</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>308</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>45</v>
       </c>
@@ -2687,8 +2829,11 @@
       <c r="K22" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -2720,8 +2865,11 @@
       <c r="K23" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>56</v>
       </c>
@@ -2753,8 +2901,11 @@
       <c r="K24" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
@@ -2786,8 +2937,11 @@
       <c r="K25" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="L25" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
@@ -2820,8 +2974,11 @@
       <c r="K26" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -2845,16 +3002,19 @@
         <v>62</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
@@ -2885,6 +3045,9 @@
       </c>
       <c r="K28" s="3" t="s">
         <v>67</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
